--- a/doc/测试案例/测试案例.xlsx
+++ b/doc/测试案例/测试案例.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32020" windowHeight="14020"/>
+    <workbookView windowWidth="24440" windowHeight="14840"/>
   </bookViews>
   <sheets>
-    <sheet name="Chap9 Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Preface" sheetId="2" r:id="rId1"/>
+    <sheet name="Chap9 Session" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+  <si>
+    <t>案例编号</t>
+  </si>
   <si>
     <t>案例名称</t>
   </si>
@@ -43,14 +47,41 @@
     <t>这个案例主要是为了验证PersistentManagerBase.processMaxIdleBackups()将空闲时间过长的session备份到持久化层的功能</t>
   </si>
   <si>
-    <t xml:space="preserve">1.配置好空闲时间的参数
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.配置好空闲时间的参数
 目前是配置在Constants.MAX_IDLE_BACKUP=20
 意思是内存中空闲时间超过20秒的session，就会备份到持久层；
 2.启动tomcat bootstrap
 3.通过SessionClient创建30个新的session对象
-4.等待20秒；
+4.等待</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
 查看backup测试结果
 </t>
+    </r>
   </si>
   <si>
     <t>1.查看持久层，验证session是否备份到文件系统了：
@@ -61,18 +92,24 @@
 3.后续再过一段时间，到了MAX_IDLE_SWAP时间(目前是配置为40秒)，连内存中的session也会被直接swap out 到持久层；
 4.再过一段时间，到了MAX_INACTIVE_INTERVAL(目前配置是60秒)，StoreBase会把持久层中的文件删除</t>
   </si>
+  <si>
+    <t>验证分布式集群同步节点的功能</t>
+  </si>
+  <si>
+    <t>验证分布式集群同步Session的功能</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,6 +132,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -104,38 +149,99 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,80 +255,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -240,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +508,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -482,28 +558,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,172 +596,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +757,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1028,24 +1081,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A10:E24"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="57.5892857142857" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A10:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="57.5892857142857" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="26.9642857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.5892857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="16383" width="57.5892857142857" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="57.5892857142857" style="1"/>
+    <col min="1" max="1" width="9.46428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.9642857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5892857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="78.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="57.5892857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" ht="18" spans="1:5">
+    <row r="10" ht="18" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1061,20 +1130,26 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" ht="71" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="71" spans="1:5">
+      <c r="A11" s="3">
+        <v>9001</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" ht="176" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="176" spans="1:5">
+      <c r="A12" s="3">
+        <v>9002</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
@@ -1082,81 +1157,104 @@
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="36" spans="1:5">
+      <c r="A13" s="3">
+        <v>9003</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="36" spans="1:5">
+      <c r="A14" s="3">
+        <v>9004</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
